--- a/Planilla Control y seguimiento.xlsx
+++ b/Planilla Control y seguimiento.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\documentación final\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\torre\OneDrive\Documentos\GitHub\finales\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4C6EE95-88FB-4178-A09C-DE4C961E5B61}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="3" documentId="13_ncr:1_{E4C6EE95-88FB-4178-A09C-DE4C961E5B61}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{133B2A62-02DA-4A67-A8CF-C45D4A4265AB}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -470,14 +470,12 @@
   </cellStyles>
   <dxfs count="15">
     <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
+        <right/>
         <top style="thin">
           <color indexed="64"/>
         </top>
@@ -487,12 +485,14 @@
       </border>
     </dxf>
     <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
-        <right/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
         <top style="thin">
           <color indexed="64"/>
         </top>
@@ -714,8 +714,8 @@
     <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Trabajo Estimado          (en horas)" dataDxfId="4" dataCellStyle="Normal"/>
     <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Duración Estimada          (en días)" dataDxfId="3" dataCellStyle="Normal"/>
     <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Real Finalización" dataDxfId="2" dataCellStyle="Normal"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Trabajo real (en horas)" dataDxfId="0" dataCellStyle="Normal"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="Duración Real (en días)" dataDxfId="1" dataCellStyle="Normal"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Trabajo real (en horas)" dataDxfId="1" dataCellStyle="Normal"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="Duración Real (en días)" dataDxfId="0" dataCellStyle="Normal"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1020,8 +1020,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:K49"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" zoomScaleSheetLayoutView="10" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" topLeftCell="A30" zoomScale="110" zoomScaleNormal="110" zoomScaleSheetLayoutView="10" workbookViewId="0">
+      <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1986,10 +1986,14 @@
       <c r="H35" s="18">
         <v>7</v>
       </c>
-      <c r="I35" s="4"/>
-      <c r="J35" s="24"/>
+      <c r="I35" s="23">
+        <v>43800</v>
+      </c>
+      <c r="J35" s="24">
+        <v>351</v>
+      </c>
       <c r="K35" s="4">
-        <v>1</v>
+        <v>39</v>
       </c>
     </row>
     <row r="36" spans="2:11" s="3" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">

--- a/Planilla Control y seguimiento.xlsx
+++ b/Planilla Control y seguimiento.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\torre\OneDrive\Documentos\GitHub\finales\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/9a14bdbe45e0146a/Documentos/GitHub/finales/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3" documentId="13_ncr:1_{E4C6EE95-88FB-4178-A09C-DE4C961E5B61}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{133B2A62-02DA-4A67-A8CF-C45D4A4265AB}"/>
+  <xr:revisionPtr revIDLastSave="14" documentId="13_ncr:1_{E4C6EE95-88FB-4178-A09C-DE4C961E5B61}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{6DAF8BA4-469B-4A66-B5C4-7CA7C2867468}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,6 +16,7 @@
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029" concurrentCalc="0"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -1020,8 +1021,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:K49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A30" zoomScale="110" zoomScaleNormal="110" zoomScaleSheetLayoutView="10" workbookViewId="0">
-      <selection activeCell="B32" sqref="B32"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" zoomScaleSheetLayoutView="10" workbookViewId="0">
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1386,7 +1387,9 @@
       <c r="H13" s="18">
         <v>1</v>
       </c>
-      <c r="I13" s="4"/>
+      <c r="I13" s="23">
+        <v>43810</v>
+      </c>
       <c r="J13" s="24"/>
       <c r="K13" s="4"/>
     </row>
@@ -1412,7 +1415,9 @@
       <c r="H14" s="18">
         <v>2</v>
       </c>
-      <c r="I14" s="4"/>
+      <c r="I14" s="23">
+        <v>43810</v>
+      </c>
       <c r="J14" s="24"/>
       <c r="K14" s="4"/>
     </row>
@@ -1438,7 +1443,9 @@
       <c r="H15" s="18">
         <v>5</v>
       </c>
-      <c r="I15" s="4"/>
+      <c r="I15" s="23">
+        <v>43810</v>
+      </c>
       <c r="J15" s="24"/>
       <c r="K15" s="4"/>
     </row>
@@ -1812,9 +1819,15 @@
       <c r="H29" s="18">
         <v>1</v>
       </c>
-      <c r="I29" s="4"/>
-      <c r="J29" s="24"/>
-      <c r="K29" s="4"/>
+      <c r="I29" s="23">
+        <v>43753</v>
+      </c>
+      <c r="J29" s="24">
+        <v>99</v>
+      </c>
+      <c r="K29" s="4">
+        <v>11</v>
+      </c>
     </row>
     <row r="30" spans="2:11" s="3" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B30" s="9" t="s">
@@ -2168,7 +2181,9 @@
       <c r="H41" s="18">
         <v>2</v>
       </c>
-      <c r="I41" s="4"/>
+      <c r="I41" s="23">
+        <v>43810</v>
+      </c>
       <c r="J41" s="24"/>
       <c r="K41" s="4"/>
     </row>

--- a/Planilla Control y seguimiento.xlsx
+++ b/Planilla Control y seguimiento.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/9a14bdbe45e0146a/Documentos/GitHub/finales/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="14" documentId="13_ncr:1_{E4C6EE95-88FB-4178-A09C-DE4C961E5B61}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{6DAF8BA4-469B-4A66-B5C4-7CA7C2867468}"/>
+  <xr:revisionPtr revIDLastSave="29" documentId="13_ncr:1_{E4C6EE95-88FB-4178-A09C-DE4C961E5B61}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{98136DF8-6E01-4294-88C4-FA68DD8C33C3}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -384,7 +384,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -447,23 +447,20 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -471,7 +468,7 @@
   </cellStyles>
   <dxfs count="15">
     <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
@@ -486,7 +483,7 @@
       </border>
     </dxf>
     <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
@@ -1022,7 +1019,7 @@
   <dimension ref="B1:K49"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" zoomScaleSheetLayoutView="10" workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+      <selection activeCell="K1" sqref="K1:K1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1036,7 +1033,7 @@
     <col min="7" max="7" width="17" style="17" customWidth="1"/>
     <col min="8" max="8" width="13" style="17" customWidth="1"/>
     <col min="9" max="9" width="12.6640625" style="1" customWidth="1"/>
-    <col min="10" max="11" width="14.33203125" style="1" customWidth="1"/>
+    <col min="10" max="11" width="14.33203125" style="17" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:11" ht="28.8" x14ac:dyDescent="0.55000000000000004">
@@ -1099,13 +1096,13 @@
       <c r="H4" s="18">
         <v>2</v>
       </c>
-      <c r="I4" s="23">
+      <c r="I4" s="22">
         <v>43728</v>
       </c>
-      <c r="J4" s="24">
+      <c r="J4" s="5">
         <v>99</v>
       </c>
-      <c r="K4" s="4">
+      <c r="K4" s="18">
         <v>11</v>
       </c>
     </row>
@@ -1131,13 +1128,13 @@
       <c r="H5" s="18">
         <v>5</v>
       </c>
-      <c r="I5" s="23">
+      <c r="I5" s="22">
         <v>43728</v>
       </c>
-      <c r="J5" s="24">
+      <c r="J5" s="5">
         <v>99</v>
       </c>
-      <c r="K5" s="4">
+      <c r="K5" s="18">
         <v>11</v>
       </c>
     </row>
@@ -1163,13 +1160,13 @@
       <c r="H6" s="18">
         <v>3</v>
       </c>
-      <c r="I6" s="23">
+      <c r="I6" s="22">
         <v>43739</v>
       </c>
-      <c r="J6" s="24">
+      <c r="J6" s="5">
         <v>153</v>
       </c>
-      <c r="K6" s="4">
+      <c r="K6" s="18">
         <v>17</v>
       </c>
     </row>
@@ -1195,13 +1192,13 @@
       <c r="H7" s="18">
         <v>4</v>
       </c>
-      <c r="I7" s="23">
+      <c r="I7" s="22">
         <v>43747</v>
       </c>
-      <c r="J7" s="24">
+      <c r="J7" s="5">
         <v>153</v>
       </c>
-      <c r="K7" s="4">
+      <c r="K7" s="18">
         <v>17</v>
       </c>
     </row>
@@ -1227,13 +1224,13 @@
       <c r="H8" s="18">
         <v>1</v>
       </c>
-      <c r="I8" s="23">
+      <c r="I8" s="22">
         <v>43752</v>
       </c>
-      <c r="J8" s="24">
+      <c r="J8" s="5">
         <v>243</v>
       </c>
-      <c r="K8" s="4">
+      <c r="K8" s="18">
         <v>27</v>
       </c>
     </row>
@@ -1259,13 +1256,13 @@
       <c r="H9" s="18">
         <v>2</v>
       </c>
-      <c r="I9" s="23">
+      <c r="I9" s="22">
         <v>43728</v>
       </c>
-      <c r="J9" s="24">
+      <c r="J9" s="5">
         <v>72</v>
       </c>
-      <c r="K9" s="4">
+      <c r="K9" s="18">
         <v>8</v>
       </c>
     </row>
@@ -1291,13 +1288,13 @@
       <c r="H10" s="18">
         <v>2</v>
       </c>
-      <c r="I10" s="23">
+      <c r="I10" s="22">
         <v>43809</v>
       </c>
-      <c r="J10" s="24">
+      <c r="J10" s="5">
         <v>5</v>
       </c>
-      <c r="K10" s="4">
+      <c r="K10" s="18">
         <v>45</v>
       </c>
     </row>
@@ -1323,13 +1320,13 @@
       <c r="H11" s="18">
         <v>75</v>
       </c>
-      <c r="I11" s="23">
+      <c r="I11" s="22">
         <v>43805</v>
       </c>
-      <c r="J11" s="24">
+      <c r="J11" s="5">
         <v>675</v>
       </c>
-      <c r="K11" s="4">
+      <c r="K11" s="18">
         <v>75</v>
       </c>
     </row>
@@ -1355,13 +1352,13 @@
       <c r="H12" s="18">
         <v>1</v>
       </c>
-      <c r="I12" s="23">
+      <c r="I12" s="22">
         <v>43762</v>
       </c>
-      <c r="J12" s="24">
+      <c r="J12" s="5">
         <v>140</v>
       </c>
-      <c r="K12" s="4">
+      <c r="K12" s="18">
         <v>28</v>
       </c>
     </row>
@@ -1387,11 +1384,11 @@
       <c r="H13" s="18">
         <v>1</v>
       </c>
-      <c r="I13" s="23">
+      <c r="I13" s="22">
         <v>43810</v>
       </c>
-      <c r="J13" s="24"/>
-      <c r="K13" s="4"/>
+      <c r="J13" s="5"/>
+      <c r="K13" s="18"/>
     </row>
     <row r="14" spans="2:11" s="3" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B14" s="9" t="s">
@@ -1415,11 +1412,11 @@
       <c r="H14" s="18">
         <v>2</v>
       </c>
-      <c r="I14" s="23">
+      <c r="I14" s="22">
         <v>43810</v>
       </c>
-      <c r="J14" s="24"/>
-      <c r="K14" s="4"/>
+      <c r="J14" s="5"/>
+      <c r="K14" s="18"/>
     </row>
     <row r="15" spans="2:11" s="3" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B15" s="9" t="s">
@@ -1443,11 +1440,11 @@
       <c r="H15" s="18">
         <v>5</v>
       </c>
-      <c r="I15" s="23">
+      <c r="I15" s="22">
         <v>43810</v>
       </c>
-      <c r="J15" s="24"/>
-      <c r="K15" s="4"/>
+      <c r="J15" s="5"/>
+      <c r="K15" s="18"/>
     </row>
     <row r="16" spans="2:11" s="3" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B16" s="9" t="s">
@@ -1471,9 +1468,11 @@
       <c r="H16" s="18">
         <v>1</v>
       </c>
-      <c r="I16" s="4"/>
-      <c r="J16" s="24"/>
-      <c r="K16" s="4"/>
+      <c r="I16" s="22">
+        <v>43810</v>
+      </c>
+      <c r="J16" s="5"/>
+      <c r="K16" s="18"/>
     </row>
     <row r="17" spans="2:11" s="3" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B17" s="9" t="s">
@@ -1497,13 +1496,13 @@
       <c r="H17" s="18">
         <v>2</v>
       </c>
-      <c r="I17" s="23">
+      <c r="I17" s="22">
         <v>43809</v>
       </c>
-      <c r="J17" s="24">
+      <c r="J17" s="5">
         <v>585</v>
       </c>
-      <c r="K17" s="4">
+      <c r="K17" s="18">
         <v>65</v>
       </c>
     </row>
@@ -1520,8 +1519,8 @@
       <c r="G18" s="18"/>
       <c r="H18" s="18"/>
       <c r="I18" s="4"/>
-      <c r="J18" s="24"/>
-      <c r="K18" s="4"/>
+      <c r="J18" s="5"/>
+      <c r="K18" s="18"/>
     </row>
     <row r="19" spans="2:11" s="3" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B19" s="9" t="s">
@@ -1545,9 +1544,11 @@
       <c r="H19" s="18">
         <v>1</v>
       </c>
-      <c r="I19" s="4"/>
-      <c r="J19" s="24"/>
-      <c r="K19" s="4"/>
+      <c r="I19" s="22">
+        <v>43809</v>
+      </c>
+      <c r="J19" s="5"/>
+      <c r="K19" s="18"/>
     </row>
     <row r="20" spans="2:11" s="3" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B20" s="9" t="s">
@@ -1571,9 +1572,11 @@
       <c r="H20" s="18">
         <v>1</v>
       </c>
-      <c r="I20" s="4"/>
-      <c r="J20" s="24"/>
-      <c r="K20" s="4"/>
+      <c r="I20" s="22">
+        <v>43809</v>
+      </c>
+      <c r="J20" s="5"/>
+      <c r="K20" s="18"/>
     </row>
     <row r="21" spans="2:11" s="3" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B21" s="9" t="s">
@@ -1597,13 +1600,13 @@
       <c r="H21" s="18">
         <v>3</v>
       </c>
-      <c r="I21" s="23">
+      <c r="I21" s="22">
         <v>43800</v>
       </c>
-      <c r="J21" s="24">
+      <c r="J21" s="5">
         <v>90</v>
       </c>
-      <c r="K21" s="4">
+      <c r="K21" s="18">
         <v>10</v>
       </c>
     </row>
@@ -1629,13 +1632,13 @@
       <c r="H22" s="18">
         <v>5</v>
       </c>
-      <c r="I22" s="23">
+      <c r="I22" s="22">
         <v>43803</v>
       </c>
-      <c r="J22" s="24">
+      <c r="J22" s="5">
         <v>99</v>
       </c>
-      <c r="K22" s="4">
+      <c r="K22" s="18">
         <v>11</v>
       </c>
     </row>
@@ -1661,13 +1664,13 @@
       <c r="H23" s="18">
         <v>5</v>
       </c>
-      <c r="I23" s="23">
+      <c r="I23" s="22">
         <v>43803</v>
       </c>
-      <c r="J23" s="24">
+      <c r="J23" s="5">
         <v>99</v>
       </c>
-      <c r="K23" s="4">
+      <c r="K23" s="18">
         <v>11</v>
       </c>
     </row>
@@ -1692,8 +1695,8 @@
         <v>1</v>
       </c>
       <c r="I24" s="4"/>
-      <c r="J24" s="24"/>
-      <c r="K24" s="4"/>
+      <c r="J24" s="5"/>
+      <c r="K24" s="18"/>
     </row>
     <row r="25" spans="2:11" s="3" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B25" s="9" t="s">
@@ -1716,8 +1719,8 @@
         <v>1</v>
       </c>
       <c r="I25" s="4"/>
-      <c r="J25" s="24"/>
-      <c r="K25" s="4"/>
+      <c r="J25" s="5"/>
+      <c r="K25" s="18"/>
     </row>
     <row r="26" spans="2:11" s="3" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B26" s="9" t="s">
@@ -1741,9 +1744,11 @@
       <c r="H26" s="18">
         <v>1</v>
       </c>
-      <c r="I26" s="4"/>
-      <c r="J26" s="24"/>
-      <c r="K26" s="4"/>
+      <c r="I26" s="22">
+        <v>43810</v>
+      </c>
+      <c r="J26" s="5"/>
+      <c r="K26" s="18"/>
     </row>
     <row r="27" spans="2:11" s="3" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B27" s="9" t="s">
@@ -1767,9 +1772,11 @@
       <c r="H27" s="18">
         <v>1</v>
       </c>
-      <c r="I27" s="4"/>
-      <c r="J27" s="24"/>
-      <c r="K27" s="4"/>
+      <c r="I27" s="22">
+        <v>43810</v>
+      </c>
+      <c r="J27" s="5"/>
+      <c r="K27" s="18"/>
     </row>
     <row r="28" spans="2:11" s="3" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B28" s="9" t="s">
@@ -1793,9 +1800,11 @@
       <c r="H28" s="18">
         <v>1</v>
       </c>
-      <c r="I28" s="4"/>
-      <c r="J28" s="24"/>
-      <c r="K28" s="4"/>
+      <c r="I28" s="22">
+        <v>43810</v>
+      </c>
+      <c r="J28" s="5"/>
+      <c r="K28" s="18"/>
     </row>
     <row r="29" spans="2:11" s="3" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B29" s="9" t="s">
@@ -1819,13 +1828,13 @@
       <c r="H29" s="18">
         <v>1</v>
       </c>
-      <c r="I29" s="23">
+      <c r="I29" s="22">
         <v>43753</v>
       </c>
-      <c r="J29" s="24">
+      <c r="J29" s="5">
         <v>99</v>
       </c>
-      <c r="K29" s="4">
+      <c r="K29" s="18">
         <v>11</v>
       </c>
     </row>
@@ -1851,13 +1860,13 @@
       <c r="H30" s="18">
         <v>7</v>
       </c>
-      <c r="I30" s="23">
+      <c r="I30" s="22">
         <v>43809</v>
       </c>
-      <c r="J30" s="24">
+      <c r="J30" s="5">
         <v>108</v>
       </c>
-      <c r="K30" s="4">
+      <c r="K30" s="18">
         <v>12</v>
       </c>
     </row>
@@ -1883,13 +1892,13 @@
       <c r="H31" s="18">
         <v>5</v>
       </c>
-      <c r="I31" s="23">
+      <c r="I31" s="22">
         <v>43804</v>
       </c>
-      <c r="J31" s="24">
+      <c r="J31" s="5">
         <v>72</v>
       </c>
-      <c r="K31" s="4">
+      <c r="K31" s="18">
         <v>8</v>
       </c>
     </row>
@@ -1915,9 +1924,11 @@
       <c r="H32" s="18">
         <v>5</v>
       </c>
-      <c r="I32" s="4"/>
-      <c r="J32" s="24"/>
-      <c r="K32" s="4"/>
+      <c r="I32" s="22">
+        <v>43810</v>
+      </c>
+      <c r="J32" s="5"/>
+      <c r="K32" s="18"/>
     </row>
     <row r="33" spans="2:11" s="3" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B33" s="9" t="s">
@@ -1941,9 +1952,11 @@
       <c r="H33" s="18">
         <v>5</v>
       </c>
-      <c r="I33" s="4"/>
-      <c r="J33" s="24"/>
-      <c r="K33" s="4"/>
+      <c r="I33" s="22">
+        <v>43810</v>
+      </c>
+      <c r="J33" s="5"/>
+      <c r="K33" s="18"/>
     </row>
     <row r="34" spans="2:11" s="3" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B34" s="9" t="s">
@@ -1967,13 +1980,13 @@
       <c r="H34" s="18">
         <v>7</v>
       </c>
-      <c r="I34" s="23">
+      <c r="I34" s="22">
         <v>43755</v>
       </c>
-      <c r="J34" s="24">
+      <c r="J34" s="5">
         <v>63</v>
       </c>
-      <c r="K34" s="4">
+      <c r="K34" s="18">
         <v>7</v>
       </c>
     </row>
@@ -1999,13 +2012,13 @@
       <c r="H35" s="18">
         <v>7</v>
       </c>
-      <c r="I35" s="23">
+      <c r="I35" s="22">
         <v>43800</v>
       </c>
-      <c r="J35" s="24">
+      <c r="J35" s="5">
         <v>351</v>
       </c>
-      <c r="K35" s="4">
+      <c r="K35" s="18">
         <v>39</v>
       </c>
     </row>
@@ -2031,13 +2044,13 @@
       <c r="H36" s="18">
         <v>10</v>
       </c>
-      <c r="I36" s="23">
+      <c r="I36" s="22">
         <v>43801</v>
       </c>
-      <c r="J36" s="24">
+      <c r="J36" s="5">
         <v>306</v>
       </c>
-      <c r="K36" s="4">
+      <c r="K36" s="18">
         <v>34</v>
       </c>
     </row>
@@ -2063,9 +2076,11 @@
       <c r="H37" s="18">
         <v>10</v>
       </c>
-      <c r="I37" s="4"/>
-      <c r="J37" s="24"/>
-      <c r="K37" s="4"/>
+      <c r="I37" s="22">
+        <v>43810</v>
+      </c>
+      <c r="J37" s="5"/>
+      <c r="K37" s="18"/>
     </row>
     <row r="38" spans="2:11" s="3" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B38" s="9" t="s">
@@ -2089,13 +2104,13 @@
       <c r="H38" s="18">
         <v>3</v>
       </c>
-      <c r="I38" s="23">
+      <c r="I38" s="22">
         <v>43768</v>
       </c>
-      <c r="J38" s="24">
+      <c r="J38" s="5">
         <v>126</v>
       </c>
-      <c r="K38" s="4">
+      <c r="K38" s="18">
         <v>14</v>
       </c>
     </row>
@@ -2121,11 +2136,11 @@
       <c r="H39" s="18">
         <v>3</v>
       </c>
-      <c r="I39" s="23">
+      <c r="I39" s="22">
         <v>43768</v>
       </c>
-      <c r="J39" s="24"/>
-      <c r="K39" s="4"/>
+      <c r="J39" s="5"/>
+      <c r="K39" s="18"/>
     </row>
     <row r="40" spans="2:11" s="3" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B40" s="9" t="s">
@@ -2149,13 +2164,13 @@
       <c r="H40" s="18">
         <v>2</v>
       </c>
-      <c r="I40" s="23">
+      <c r="I40" s="22">
         <v>43808</v>
       </c>
-      <c r="J40" s="24">
+      <c r="J40" s="5">
         <v>153</v>
       </c>
-      <c r="K40" s="4">
+      <c r="K40" s="18">
         <v>17</v>
       </c>
     </row>
@@ -2181,11 +2196,11 @@
       <c r="H41" s="18">
         <v>2</v>
       </c>
-      <c r="I41" s="23">
+      <c r="I41" s="22">
         <v>43810</v>
       </c>
-      <c r="J41" s="24"/>
-      <c r="K41" s="4"/>
+      <c r="J41" s="5"/>
+      <c r="K41" s="18"/>
     </row>
     <row r="42" spans="2:11" s="3" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B42" s="9" t="s">
@@ -2209,13 +2224,13 @@
       <c r="H42" s="18">
         <v>5</v>
       </c>
-      <c r="I42" s="23">
+      <c r="I42" s="22">
         <v>43801</v>
       </c>
-      <c r="J42" s="24">
+      <c r="J42" s="5">
         <v>387</v>
       </c>
-      <c r="K42" s="4">
+      <c r="K42" s="18">
         <v>43</v>
       </c>
     </row>
@@ -2241,13 +2256,13 @@
       <c r="H43" s="18">
         <v>5</v>
       </c>
-      <c r="I43" s="27">
+      <c r="I43" s="23">
         <v>43780</v>
       </c>
-      <c r="J43" s="25">
+      <c r="J43" s="24">
         <v>288</v>
       </c>
-      <c r="K43" s="22">
+      <c r="K43" s="26">
         <v>32</v>
       </c>
     </row>
@@ -2273,13 +2288,13 @@
       <c r="H44" s="18">
         <v>5</v>
       </c>
-      <c r="I44" s="23">
+      <c r="I44" s="22">
         <v>43808</v>
       </c>
-      <c r="J44" s="25">
+      <c r="J44" s="24">
         <v>297</v>
       </c>
-      <c r="K44" s="4">
+      <c r="K44" s="18">
         <v>33</v>
       </c>
     </row>
@@ -2305,13 +2320,13 @@
       <c r="H45" s="18">
         <v>5</v>
       </c>
-      <c r="I45" s="27">
+      <c r="I45" s="23">
         <v>43780</v>
       </c>
-      <c r="J45" s="25">
+      <c r="J45" s="24">
         <v>288</v>
       </c>
-      <c r="K45" s="22">
+      <c r="K45" s="26">
         <v>32</v>
       </c>
     </row>
@@ -2337,13 +2352,13 @@
       <c r="H46" s="18">
         <v>5</v>
       </c>
-      <c r="I46" s="23">
+      <c r="I46" s="22">
         <v>43808</v>
       </c>
-      <c r="J46" s="25">
+      <c r="J46" s="24">
         <v>297</v>
       </c>
-      <c r="K46" s="4">
+      <c r="K46" s="18">
         <v>33</v>
       </c>
     </row>
@@ -2369,13 +2384,13 @@
       <c r="H47" s="18">
         <v>5</v>
       </c>
-      <c r="I47" s="27">
+      <c r="I47" s="23">
         <v>43780</v>
       </c>
-      <c r="J47" s="25">
+      <c r="J47" s="24">
         <v>288</v>
       </c>
-      <c r="K47" s="22">
+      <c r="K47" s="26">
         <v>32</v>
       </c>
     </row>
@@ -2401,13 +2416,13 @@
       <c r="H48" s="18">
         <v>5</v>
       </c>
-      <c r="I48" s="23">
+      <c r="I48" s="22">
         <v>43808</v>
       </c>
-      <c r="J48" s="25">
+      <c r="J48" s="24">
         <v>297</v>
       </c>
-      <c r="K48" s="4">
+      <c r="K48" s="18">
         <v>33</v>
       </c>
     </row>
@@ -2432,8 +2447,8 @@
         <v>1</v>
       </c>
       <c r="I49" s="6"/>
-      <c r="J49" s="26"/>
-      <c r="K49" s="6"/>
+      <c r="J49" s="25"/>
+      <c r="K49" s="19"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Planilla Control y seguimiento.xlsx
+++ b/Planilla Control y seguimiento.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/9a14bdbe45e0146a/Documentos/GitHub/finales/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="29" documentId="13_ncr:1_{E4C6EE95-88FB-4178-A09C-DE4C961E5B61}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{98136DF8-6E01-4294-88C4-FA68DD8C33C3}"/>
+  <xr:revisionPtr revIDLastSave="30" documentId="13_ncr:1_{E4C6EE95-88FB-4178-A09C-DE4C961E5B61}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{7E40230C-C142-47BE-A413-BD89F2471FDA}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="62">
   <si>
     <t xml:space="preserve">Seguimiento de Proyectos </t>
   </si>
@@ -75,9 +75,6 @@
     <t>Real Finalización</t>
   </si>
   <si>
-    <t>Trabajo real (en horas)</t>
-  </si>
-  <si>
     <t>PROYECTO</t>
   </si>
   <si>
@@ -154,9 +151,6 @@
   </si>
   <si>
     <t>Duración Estimada          (en días)</t>
-  </si>
-  <si>
-    <t>Duración Real (en días)</t>
   </si>
   <si>
     <t>Informe de cierre</t>
@@ -264,7 +258,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -367,24 +361,11 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -453,52 +434,11 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="15">
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
+  <dxfs count="13">
     <dxf>
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
@@ -701,19 +641,17 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabla1" displayName="Tabla1" ref="B3:K49" totalsRowShown="0" headerRowDxfId="14" dataDxfId="12" headerRowBorderDxfId="13" tableBorderDxfId="11" totalsRowBorderDxfId="10" headerRowCellStyle="Normal" dataCellStyle="Normal">
-  <autoFilter ref="B3:K49" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
-  <tableColumns count="10">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="PROYECTO" dataDxfId="9" dataCellStyle="Normal"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Categoría" dataDxfId="8" dataCellStyle="Normal"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Asignado a " dataDxfId="7" dataCellStyle="Normal"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Estimado Inicio " dataDxfId="6" dataCellStyle="Normal"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Estimado Finalización" dataDxfId="5" dataCellStyle="Normal"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Trabajo Estimado          (en horas)" dataDxfId="4" dataCellStyle="Normal"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Duración Estimada          (en días)" dataDxfId="3" dataCellStyle="Normal"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Real Finalización" dataDxfId="2" dataCellStyle="Normal"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Trabajo real (en horas)" dataDxfId="1" dataCellStyle="Normal"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="Duración Real (en días)" dataDxfId="0" dataCellStyle="Normal"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabla1" displayName="Tabla1" ref="B3:I49" totalsRowShown="0" headerRowDxfId="12" dataDxfId="10" headerRowBorderDxfId="11" tableBorderDxfId="9" totalsRowBorderDxfId="8" headerRowCellStyle="Normal" dataCellStyle="Normal">
+  <autoFilter ref="B3:I49" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+  <tableColumns count="8">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="PROYECTO" dataDxfId="7" dataCellStyle="Normal"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Categoría" dataDxfId="6" dataCellStyle="Normal"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Asignado a " dataDxfId="5" dataCellStyle="Normal"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Estimado Inicio " dataDxfId="4" dataCellStyle="Normal"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Estimado Finalización" dataDxfId="3" dataCellStyle="Normal"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Trabajo Estimado          (en horas)" dataDxfId="2" dataCellStyle="Normal"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Duración Estimada          (en días)" dataDxfId="1" dataCellStyle="Normal"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Real Finalización" dataDxfId="0" dataCellStyle="Normal"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1016,10 +954,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:K49"/>
+  <dimension ref="B1:I49"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" zoomScaleSheetLayoutView="10" workbookViewId="0">
-      <selection activeCell="K1" sqref="K1:K1048576"/>
+      <selection activeCell="L6" sqref="L6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1033,18 +971,17 @@
     <col min="7" max="7" width="17" style="17" customWidth="1"/>
     <col min="8" max="8" width="13" style="17" customWidth="1"/>
     <col min="9" max="9" width="12.6640625" style="1" customWidth="1"/>
-    <col min="10" max="11" width="14.33203125" style="17" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:11" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="2:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="3" spans="2:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="3" spans="2:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B3" s="8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C3" s="7" t="s">
         <v>8</v>
@@ -1053,28 +990,22 @@
         <v>9</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F3" s="13" t="s">
         <v>11</v>
       </c>
       <c r="G3" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="H3" s="5" t="s">
         <v>38</v>
-      </c>
-      <c r="H3" s="5" t="s">
-        <v>39</v>
       </c>
       <c r="I3" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="J3" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="K3" s="5" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="4" spans="2:11" s="3" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="2:9" s="3" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" s="9" t="s">
         <v>1</v>
       </c>
@@ -1082,7 +1013,7 @@
         <v>10</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E4" s="15">
         <v>43714</v>
@@ -1099,22 +1030,16 @@
       <c r="I4" s="22">
         <v>43728</v>
       </c>
-      <c r="J4" s="5">
-        <v>99</v>
-      </c>
-      <c r="K4" s="18">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="2:11" s="3" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="5" spans="2:9" s="3" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C5" s="11" t="s">
         <v>10</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E5" s="15">
         <v>43706</v>
@@ -1131,14 +1056,8 @@
       <c r="I5" s="22">
         <v>43728</v>
       </c>
-      <c r="J5" s="5">
-        <v>99</v>
-      </c>
-      <c r="K5" s="18">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" spans="2:11" s="3" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="6" spans="2:9" s="3" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6" s="9" t="s">
         <v>2</v>
       </c>
@@ -1146,7 +1065,7 @@
         <v>10</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E6" s="15">
         <v>43717</v>
@@ -1163,14 +1082,8 @@
       <c r="I6" s="22">
         <v>43739</v>
       </c>
-      <c r="J6" s="5">
-        <v>153</v>
-      </c>
-      <c r="K6" s="18">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" spans="2:11" s="3" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="7" spans="2:9" s="3" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="9" t="s">
         <v>3</v>
       </c>
@@ -1178,7 +1091,7 @@
         <v>10</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E7" s="15">
         <v>43725</v>
@@ -1195,14 +1108,8 @@
       <c r="I7" s="22">
         <v>43747</v>
       </c>
-      <c r="J7" s="5">
-        <v>153</v>
-      </c>
-      <c r="K7" s="18">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="8" spans="2:11" s="3" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="8" spans="2:9" s="3" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8" s="9" t="s">
         <v>4</v>
       </c>
@@ -1210,7 +1117,7 @@
         <v>10</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E8" s="15">
         <v>43714</v>
@@ -1227,14 +1134,8 @@
       <c r="I8" s="22">
         <v>43752</v>
       </c>
-      <c r="J8" s="5">
-        <v>243</v>
-      </c>
-      <c r="K8" s="18">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="9" spans="2:11" s="3" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="9" spans="2:9" s="3" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" s="9" t="s">
         <v>5</v>
       </c>
@@ -1242,7 +1143,7 @@
         <v>10</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E9" s="15">
         <v>43719</v>
@@ -1259,14 +1160,8 @@
       <c r="I9" s="22">
         <v>43728</v>
       </c>
-      <c r="J9" s="5">
-        <v>72</v>
-      </c>
-      <c r="K9" s="18">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="2:11" s="3" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="10" spans="2:9" s="3" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B10" s="9" t="s">
         <v>6</v>
       </c>
@@ -1274,7 +1169,7 @@
         <v>10</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E10" s="15">
         <v>43803</v>
@@ -1291,14 +1186,8 @@
       <c r="I10" s="22">
         <v>43809</v>
       </c>
-      <c r="J10" s="5">
-        <v>5</v>
-      </c>
-      <c r="K10" s="18">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="11" spans="2:11" s="3" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="11" spans="2:9" s="3" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="9" t="s">
         <v>7</v>
       </c>
@@ -1306,7 +1195,7 @@
         <v>10</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E11" s="15">
         <v>43703</v>
@@ -1323,22 +1212,16 @@
       <c r="I11" s="22">
         <v>43805</v>
       </c>
-      <c r="J11" s="5">
-        <v>675</v>
-      </c>
-      <c r="K11" s="18">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="12" spans="2:11" s="3" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="12" spans="2:9" s="3" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B12" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E12" s="15">
         <v>43725</v>
@@ -1355,22 +1238,16 @@
       <c r="I12" s="22">
         <v>43762</v>
       </c>
-      <c r="J12" s="5">
-        <v>140</v>
-      </c>
-      <c r="K12" s="18">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="13" spans="2:11" s="3" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="13" spans="2:9" s="3" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B13" s="9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E13" s="15">
         <v>43725</v>
@@ -1387,18 +1264,16 @@
       <c r="I13" s="22">
         <v>43810</v>
       </c>
-      <c r="J13" s="5"/>
-      <c r="K13" s="18"/>
-    </row>
-    <row r="14" spans="2:11" s="3" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="14" spans="2:9" s="3" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B14" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C14" s="11" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E14" s="15">
         <v>43726</v>
@@ -1415,18 +1290,16 @@
       <c r="I14" s="22">
         <v>43810</v>
       </c>
-      <c r="J14" s="5"/>
-      <c r="K14" s="18"/>
-    </row>
-    <row r="15" spans="2:11" s="3" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="15" spans="2:9" s="3" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B15" s="9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E15" s="15">
         <v>43728</v>
@@ -1443,18 +1316,16 @@
       <c r="I15" s="22">
         <v>43810</v>
       </c>
-      <c r="J15" s="5"/>
-      <c r="K15" s="18"/>
-    </row>
-    <row r="16" spans="2:11" s="3" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="16" spans="2:9" s="3" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B16" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C16" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="C16" s="11" t="s">
-        <v>20</v>
-      </c>
       <c r="D16" s="4" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E16" s="15">
         <v>43735</v>
@@ -1471,18 +1342,16 @@
       <c r="I16" s="22">
         <v>43810</v>
       </c>
-      <c r="J16" s="5"/>
-      <c r="K16" s="18"/>
-    </row>
-    <row r="17" spans="2:11" s="3" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="17" spans="2:9" s="3" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B17" s="9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C17" s="11" t="s">
         <v>10</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E17" s="15">
         <v>43721</v>
@@ -1499,16 +1368,10 @@
       <c r="I17" s="22">
         <v>43809</v>
       </c>
-      <c r="J17" s="5">
-        <v>585</v>
-      </c>
-      <c r="K17" s="18">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="18" spans="2:11" s="3" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="18" spans="2:9" s="3" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B18" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C18" s="11" t="s">
         <v>10</v>
@@ -1519,18 +1382,16 @@
       <c r="G18" s="18"/>
       <c r="H18" s="18"/>
       <c r="I18" s="4"/>
-      <c r="J18" s="5"/>
-      <c r="K18" s="18"/>
-    </row>
-    <row r="19" spans="2:11" s="3" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="19" spans="2:9" s="3" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B19" s="9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C19" s="11" t="s">
         <v>10</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E19" s="15">
         <v>43740</v>
@@ -1547,18 +1408,16 @@
       <c r="I19" s="22">
         <v>43809</v>
       </c>
-      <c r="J19" s="5"/>
-      <c r="K19" s="18"/>
-    </row>
-    <row r="20" spans="2:11" s="3" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="20" spans="2:9" s="3" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B20" s="9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C20" s="11" t="s">
         <v>10</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E20" s="15">
         <v>43739</v>
@@ -1575,18 +1434,16 @@
       <c r="I20" s="22">
         <v>43809</v>
       </c>
-      <c r="J20" s="5"/>
-      <c r="K20" s="18"/>
-    </row>
-    <row r="21" spans="2:11" s="3" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="21" spans="2:9" s="3" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B21" s="9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C21" s="11" t="s">
         <v>10</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E21" s="15">
         <v>43787</v>
@@ -1603,22 +1460,16 @@
       <c r="I21" s="22">
         <v>43800</v>
       </c>
-      <c r="J21" s="5">
-        <v>90</v>
-      </c>
-      <c r="K21" s="18">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="22" spans="2:11" s="3" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="22" spans="2:9" s="3" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B22" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C22" s="11" t="s">
         <v>10</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E22" s="15">
         <v>43790</v>
@@ -1635,22 +1486,16 @@
       <c r="I22" s="22">
         <v>43803</v>
       </c>
-      <c r="J22" s="5">
-        <v>99</v>
-      </c>
-      <c r="K22" s="18">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="23" spans="2:11" s="3" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="23" spans="2:9" s="3" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B23" s="9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C23" s="11" t="s">
         <v>10</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E23" s="15">
         <v>43790</v>
@@ -1667,16 +1512,10 @@
       <c r="I23" s="22">
         <v>43803</v>
       </c>
-      <c r="J23" s="5">
-        <v>99</v>
-      </c>
-      <c r="K23" s="18">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="24" spans="2:11" s="3" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="24" spans="2:9" s="3" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B24" s="9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C24" s="11" t="s">
         <v>10</v>
@@ -1695,12 +1534,10 @@
         <v>1</v>
       </c>
       <c r="I24" s="4"/>
-      <c r="J24" s="5"/>
-      <c r="K24" s="18"/>
-    </row>
-    <row r="25" spans="2:11" s="3" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="25" spans="2:9" s="3" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B25" s="9" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C25" s="11" t="s">
         <v>10</v>
@@ -1719,18 +1556,16 @@
         <v>1</v>
       </c>
       <c r="I25" s="4"/>
-      <c r="J25" s="5"/>
-      <c r="K25" s="18"/>
-    </row>
-    <row r="26" spans="2:11" s="3" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="26" spans="2:9" s="3" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B26" s="9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C26" s="11" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E26" s="15">
         <v>43735</v>
@@ -1747,18 +1582,16 @@
       <c r="I26" s="22">
         <v>43810</v>
       </c>
-      <c r="J26" s="5"/>
-      <c r="K26" s="18"/>
-    </row>
-    <row r="27" spans="2:11" s="3" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="27" spans="2:9" s="3" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B27" s="9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C27" s="11" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E27" s="15">
         <v>43738</v>
@@ -1775,18 +1608,16 @@
       <c r="I27" s="22">
         <v>43810</v>
       </c>
-      <c r="J27" s="5"/>
-      <c r="K27" s="18"/>
-    </row>
-    <row r="28" spans="2:11" s="3" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="28" spans="2:9" s="3" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B28" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C28" s="11" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E28" s="15">
         <v>43770</v>
@@ -1803,18 +1634,16 @@
       <c r="I28" s="22">
         <v>43810</v>
       </c>
-      <c r="J28" s="5"/>
-      <c r="K28" s="18"/>
-    </row>
-    <row r="29" spans="2:11" s="3" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="29" spans="2:9" s="3" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B29" s="9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C29" s="11" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E29" s="15">
         <v>43770</v>
@@ -1831,22 +1660,16 @@
       <c r="I29" s="22">
         <v>43753</v>
       </c>
-      <c r="J29" s="5">
-        <v>99</v>
-      </c>
-      <c r="K29" s="18">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="30" spans="2:11" s="3" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="30" spans="2:9" s="3" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B30" s="9" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C30" s="11" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E30" s="15">
         <v>43794</v>
@@ -1863,22 +1686,16 @@
       <c r="I30" s="22">
         <v>43809</v>
       </c>
-      <c r="J30" s="5">
-        <v>108</v>
-      </c>
-      <c r="K30" s="18">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="31" spans="2:11" s="3" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="31" spans="2:9" s="3" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B31" s="9" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C31" s="11" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E31" s="15">
         <v>43795</v>
@@ -1895,22 +1712,16 @@
       <c r="I31" s="22">
         <v>43804</v>
       </c>
-      <c r="J31" s="5">
-        <v>72</v>
-      </c>
-      <c r="K31" s="18">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="32" spans="2:11" s="3" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="32" spans="2:9" s="3" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B32" s="9" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C32" s="11" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E32" s="15">
         <v>43795</v>
@@ -1927,18 +1738,16 @@
       <c r="I32" s="22">
         <v>43810</v>
       </c>
-      <c r="J32" s="5"/>
-      <c r="K32" s="18"/>
-    </row>
-    <row r="33" spans="2:11" s="3" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="33" spans="2:9" s="3" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B33" s="9" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C33" s="11" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E33" s="15">
         <v>43795</v>
@@ -1955,18 +1764,16 @@
       <c r="I33" s="22">
         <v>43810</v>
       </c>
-      <c r="J33" s="5"/>
-      <c r="K33" s="18"/>
-    </row>
-    <row r="34" spans="2:11" s="3" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="34" spans="2:9" s="3" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B34" s="9" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C34" s="11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E34" s="15">
         <v>43747</v>
@@ -1983,22 +1790,16 @@
       <c r="I34" s="22">
         <v>43755</v>
       </c>
-      <c r="J34" s="5">
-        <v>63</v>
-      </c>
-      <c r="K34" s="18">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="35" spans="2:11" s="3" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="35" spans="2:9" s="3" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B35" s="9" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C35" s="11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E35" s="15">
         <v>43747</v>
@@ -2015,22 +1816,16 @@
       <c r="I35" s="22">
         <v>43800</v>
       </c>
-      <c r="J35" s="5">
-        <v>351</v>
-      </c>
-      <c r="K35" s="18">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="36" spans="2:11" s="3" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="36" spans="2:9" s="3" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B36" s="9" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C36" s="11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E36" s="15">
         <v>43748</v>
@@ -2047,22 +1842,16 @@
       <c r="I36" s="22">
         <v>43801</v>
       </c>
-      <c r="J36" s="5">
-        <v>306</v>
-      </c>
-      <c r="K36" s="18">
+    </row>
+    <row r="37" spans="2:9" s="3" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B37" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="C37" s="11" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="37" spans="2:11" s="3" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B37" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="C37" s="11" t="s">
-        <v>35</v>
-      </c>
       <c r="D37" s="4" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E37" s="15">
         <v>43748</v>
@@ -2079,18 +1868,16 @@
       <c r="I37" s="22">
         <v>43810</v>
       </c>
-      <c r="J37" s="5"/>
-      <c r="K37" s="18"/>
-    </row>
-    <row r="38" spans="2:11" s="3" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="38" spans="2:9" s="3" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B38" s="9" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C38" s="11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E38" s="15">
         <v>43749</v>
@@ -2107,22 +1894,16 @@
       <c r="I38" s="22">
         <v>43768</v>
       </c>
-      <c r="J38" s="5">
-        <v>126</v>
-      </c>
-      <c r="K38" s="18">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="39" spans="2:11" s="3" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="39" spans="2:9" s="3" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B39" s="9" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C39" s="11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E39" s="15">
         <v>43749</v>
@@ -2139,18 +1920,16 @@
       <c r="I39" s="22">
         <v>43768</v>
       </c>
-      <c r="J39" s="5"/>
-      <c r="K39" s="18"/>
-    </row>
-    <row r="40" spans="2:11" s="3" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="40" spans="2:9" s="3" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B40" s="9" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C40" s="11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E40" s="15">
         <v>43784</v>
@@ -2167,22 +1946,16 @@
       <c r="I40" s="22">
         <v>43808</v>
       </c>
-      <c r="J40" s="5">
-        <v>153</v>
-      </c>
-      <c r="K40" s="18">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="41" spans="2:11" s="3" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="41" spans="2:9" s="3" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B41" s="9" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C41" s="11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E41" s="15">
         <v>43784</v>
@@ -2199,18 +1972,16 @@
       <c r="I41" s="22">
         <v>43810</v>
       </c>
-      <c r="J41" s="5"/>
-      <c r="K41" s="18"/>
-    </row>
-    <row r="42" spans="2:11" s="3" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="42" spans="2:9" s="3" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B42" s="9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C42" s="11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D42" s="4" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E42" s="15">
         <v>43741</v>
@@ -2227,22 +1998,16 @@
       <c r="I42" s="22">
         <v>43801</v>
       </c>
-      <c r="J42" s="5">
-        <v>387</v>
-      </c>
-      <c r="K42" s="18">
+    </row>
+    <row r="43" spans="2:9" s="3" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B43" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="C43" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="D43" s="4" t="s">
         <v>43</v>
-      </c>
-    </row>
-    <row r="43" spans="2:11" s="3" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B43" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="C43" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="D43" s="4" t="s">
-        <v>45</v>
       </c>
       <c r="E43" s="21">
         <v>43762</v>
@@ -2259,22 +2024,16 @@
       <c r="I43" s="23">
         <v>43780</v>
       </c>
-      <c r="J43" s="24">
-        <v>288</v>
-      </c>
-      <c r="K43" s="26">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="44" spans="2:11" s="3" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="44" spans="2:9" s="3" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B44" s="9" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C44" s="11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D44" s="4" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E44" s="21">
         <v>43762</v>
@@ -2291,22 +2050,16 @@
       <c r="I44" s="22">
         <v>43808</v>
       </c>
-      <c r="J44" s="24">
-        <v>297</v>
-      </c>
-      <c r="K44" s="18">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="45" spans="2:11" s="3" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="45" spans="2:9" s="3" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B45" s="9" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C45" s="11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D45" s="20" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E45" s="21">
         <v>43762</v>
@@ -2323,22 +2076,16 @@
       <c r="I45" s="23">
         <v>43780</v>
       </c>
-      <c r="J45" s="24">
-        <v>288</v>
-      </c>
-      <c r="K45" s="26">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="46" spans="2:11" s="3" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="46" spans="2:9" s="3" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B46" s="9" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C46" s="11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D46" s="4" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E46" s="21">
         <v>43762</v>
@@ -2355,22 +2102,16 @@
       <c r="I46" s="22">
         <v>43808</v>
       </c>
-      <c r="J46" s="24">
-        <v>297</v>
-      </c>
-      <c r="K46" s="18">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="47" spans="2:11" s="3" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="47" spans="2:9" s="3" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B47" s="9" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C47" s="11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D47" s="4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E47" s="21">
         <v>43762</v>
@@ -2387,22 +2128,16 @@
       <c r="I47" s="23">
         <v>43780</v>
       </c>
-      <c r="J47" s="24">
-        <v>288</v>
-      </c>
-      <c r="K47" s="26">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="48" spans="2:11" s="3" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="48" spans="2:9" s="3" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B48" s="9" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C48" s="11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D48" s="4" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E48" s="15">
         <v>43762</v>
@@ -2419,19 +2154,13 @@
       <c r="I48" s="22">
         <v>43808</v>
       </c>
-      <c r="J48" s="24">
-        <v>297</v>
-      </c>
-      <c r="K48" s="18">
+    </row>
+    <row r="49" spans="2:9" s="3" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B49" s="10" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="49" spans="2:11" s="3" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B49" s="10" t="s">
+      <c r="C49" s="12" t="s">
         <v>34</v>
-      </c>
-      <c r="C49" s="12" t="s">
-        <v>35</v>
       </c>
       <c r="D49" s="6"/>
       <c r="E49" s="16">
@@ -2447,8 +2176,6 @@
         <v>1</v>
       </c>
       <c r="I49" s="6"/>
-      <c r="J49" s="25"/>
-      <c r="K49" s="19"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Planilla Control y seguimiento.xlsx
+++ b/Planilla Control y seguimiento.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/9a14bdbe45e0146a/Documentos/GitHub/finales/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\torre\OneDrive\Documentos\GitHub\finales\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="30" documentId="13_ncr:1_{E4C6EE95-88FB-4178-A09C-DE4C961E5B61}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{7E40230C-C142-47BE-A413-BD89F2471FDA}"/>
+  <xr:revisionPtr revIDLastSave="32" documentId="13_ncr:1_{E4C6EE95-88FB-4178-A09C-DE4C961E5B61}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{127A87F3-4676-44E3-9D50-4BE606A22DAC}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,6 @@
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029" concurrentCalc="0"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="62">
   <si>
     <t xml:space="preserve">Seguimiento de Proyectos </t>
   </si>
@@ -956,8 +955,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:I49"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" zoomScaleSheetLayoutView="10" workbookViewId="0">
-      <selection activeCell="L6" sqref="L6"/>
+    <sheetView tabSelected="1" topLeftCell="A27" zoomScale="110" zoomScaleNormal="110" zoomScaleSheetLayoutView="10" workbookViewId="0">
+      <selection activeCell="C46" sqref="C46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1542,7 +1541,9 @@
       <c r="C25" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="D25" s="4"/>
+      <c r="D25" s="4" t="s">
+        <v>43</v>
+      </c>
       <c r="E25" s="15">
         <v>43789</v>
       </c>
@@ -1555,7 +1556,9 @@
       <c r="H25" s="18">
         <v>1</v>
       </c>
-      <c r="I25" s="4"/>
+      <c r="I25" s="22">
+        <v>43810</v>
+      </c>
     </row>
     <row r="26" spans="2:9" s="3" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B26" s="9" t="s">
